--- a/tabtoy/level20.xlsx
+++ b/tabtoy/level20.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -34,10 +34,61 @@
     <t>普通怪物3</t>
   </si>
   <si>
-    <t>BOSS</t>
+    <t>boss</t>
   </si>
   <si>
     <t>20000001</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>20000002</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>20000003</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>20000004</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20000005</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>20000006</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20000007</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20000008</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>20000009</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -344,13 +395,27 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -372,14 +437,30 @@
       <c r="AA2" s="2"/>
     </row>
     <row r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -401,14 +482,30 @@
       <c r="AA3" s="2"/>
     </row>
     <row r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="A4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -430,14 +527,30 @@
       <c r="AA4" s="2"/>
     </row>
     <row r="5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
@@ -459,14 +572,30 @@
       <c r="AA5" s="2"/>
     </row>
     <row r="6">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
@@ -488,14 +617,30 @@
       <c r="AA6" s="2"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="A7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
@@ -517,14 +662,30 @@
       <c r="AA7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -546,14 +707,30 @@
       <c r="AA8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -575,14 +752,30 @@
       <c r="AA9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
